--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:41:35+00:00</t>
+    <t>2025-10-09T09:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:07:51+00:00</t>
+    <t>2025-10-09T12:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:26:29+00:00</t>
+    <t>2025-10-09T16:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T16:04:50+00:00</t>
+    <t>2025-10-09T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T17:33:43+00:00</t>
+    <t>2025-10-09T18:52:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -735,7 +735,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Patient)
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Encounter)
 </t>
   </si>
   <si>
@@ -1453,7 +1453,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3654,7 +3654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>236</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T02:17:32+00:00</t>
+    <t>2025-10-21T04:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T04:48:52+00:00</t>
+    <t>2025-10-21T09:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Condition.xlsx
+++ b/StructureDefinition-RS-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T09:02:18+00:00</t>
+    <t>2025-10-21T09:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
